--- a/Scrapy/weibohot/weibohot13102020.xlsx
+++ b/Scrapy/weibohot/weibohot13102020.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-10-2020-16-03-31" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-10-2020-16-37-12" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-10-2020-16-41-53" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-10-2020-17-51-31" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5151,4 +5152,790 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>中国少先队建队71周年</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3398186</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>男版名媛</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3069774</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>宝贝你是妈妈捐髓后获赠的</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3066577</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>特有锋芒</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3066299</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>石原里美宣布结婚后首亮相</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2134182</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>汕头</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1532041</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>听我们的歌爷青回</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1341891</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>假靳东</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1062026</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>英国一体重340斤士兵被赶出部队</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>874280</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>这宿舍也太会了吧</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>829932</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>一群小狗居然在等红绿灯</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>736736</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>农行笔试</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>655623</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>怕是考不上清华北大了</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>602765</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>私家车被共享单车层层包围</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>535857</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>奸淫不满10周岁幼女将适用更重刑罚</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>499737</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>荷兰报告全球首例二次感染死亡病例</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>499679</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>罗晋第一次抱女儿心情平静</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>494650</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>世卫回应新冠可在钞票表面存活28天</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>494077</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>邓超偷拍哈哈哈哈哈嘉宾睡觉</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>490337</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>资阳下水道现行李箱藏女尸</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>487245</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>易建联将缺席CBA新赛季</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>485821</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>校长戴表情包面具拔河</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>468667</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>当一个人很久没换过头像</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>419905</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>如何满足中老年女性情感需求</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>394645</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>易烊千玺南京</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>349338</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>上周全球约一半新增病例来自美印巴</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>322785</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>台风</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>300053</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>王舜禾退出水果星球</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>282684</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>文姬青岛分姬</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>231784</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>山东追踪检测青岛流出超22万人均阴性</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>230899</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>湖人夺冠胡仁总灌君餐馆走红</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>230826</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>靳东工作室起诉假冒者</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>230345</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>使徒3好哭</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>226453</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>中国海洋大学否认化粪池爆炸</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>218020</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>捡到10万元钻戒以为是道具</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>204807</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>公民在庄重场合可佩戴国徽徽章</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>204209</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>王一博的手绝了</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>198287</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>12至14岁故意杀人等犯罪或将负刑责</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>193385</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>蜘蛛侠3</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>176269</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>外交部回应美批准对台军售</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>169308</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>外交部回应五眼联盟要求开后门</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>166463</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>喜宝</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>151451</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>北京现环天顶弧</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>142037</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>身份证闹乌龙母子只差十岁</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>136329</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>孔雪儿跳LovesickGirls</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>135768</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>全国开展义务教育教师工资拖欠摸查</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>135755</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Amy姐否认开天王嫂培训班</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>135748</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>上海明道大厦起火</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>135746</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>V5三名选手离队</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>133664</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>中国海洋大学</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>132176</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Scrapy/weibohot/weibohot13102020.xlsx
+++ b/Scrapy/weibohot/weibohot13102020.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-10-2020-16-37-12" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-10-2020-16-41-53" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-10-2020-17-51-31" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-10-2020-18-15-02" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5938,4 +5939,790 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>第八届中国网络视听大会</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3091088</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>男版名媛</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2767657</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>汕头</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2738525</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>特有锋芒</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2735991</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>石原里美宣布结婚后首亮相</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2645686</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>邓超偷拍哈哈哈哈哈嘉宾睡觉</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1622193</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amy姐否认开天王嫂培训班</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>953877</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>宝贝你是妈妈捐髓后获赠的</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>867785</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>英国一体重340斤士兵被赶出部队</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>856936</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>这宿舍也太会了吧</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>716140</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>一群小狗居然在等红绿灯</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>696046</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>假靳东</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>560733</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>农行笔试</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>549675</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>怕是考不上清华北大了</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>497810</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>荷兰报告全球首例二次感染死亡病例</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>460968</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>私家车被共享单车层层包围</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>423582</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>奸淫不满10周岁幼女将适用更重刑罚</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>422252</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>资阳下水道现行李箱藏女尸</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>420015</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>男子编造青岛新冠确诊人数被拘15天</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>419499</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>湖人夺冠胡仁总灌君餐馆走红</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>419036</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>当一个人很久没换过头像</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>386814</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>校长戴表情包面具拔河</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>361805</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>易烊千玺南京</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>355115</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>如何满足中老年女性情感需求</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>280715</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>外交部回应五眼联盟要求开后门</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>280293</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>上海明道大厦起火</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>279550</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>罗晋第一次抱女儿心情平静</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>276962</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>文姬青岛分姬</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>260942</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>世卫回应新冠可在钞票表面存活28天</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>241222</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>易建联将缺席CBA新赛季</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>236620</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>王舜禾退出水果星球</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>236233</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>台风</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>227918</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>靳东工作室起诉假冒者</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>218563</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>使徒3好哭</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>203410</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>山东追踪检测青岛流出超22万人均阴性</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>193151</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>公民在庄重场合可佩戴国徽徽章</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>191028</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>捡到10万元钻戒以为是道具</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>181424</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>北京现环天顶弧</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>180514</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>中国海洋大学否认化粪池爆炸</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>175536</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>蜘蛛侠3</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>165738</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>喜宝</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>163014</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>王一博的手绝了</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>162182</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>日本画师笔下的果蔬团子们</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>153107</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>上海隧道一司机别车反被撞</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>151633</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>超刺激的华山索道</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>143958</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>广州地铁22号线拟延至东莞接深圳</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>141894</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>12至14岁故意杀人等犯罪或将负刑责</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>138177</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>全国开展义务教育教师工资拖欠摸查</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>118896</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>惊艳了整个秋天的银杏</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>117486</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>外交部回应美批准对台军售</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>116650</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Scrapy/weibohot/weibohot13102020.xlsx
+++ b/Scrapy/weibohot/weibohot13102020.xlsx
@@ -15,6 +15,15 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-10-2020-16-41-53" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-10-2020-17-51-31" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-10-2020-18-15-02" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-10-2020-19-00-02" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-10-2020-19-20-02" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-10-2020-19-40-02" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-10-2020-20-00-02" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-10-2020-20-20-02" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-10-2020-20-40-02" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-10-2020-21-00-02" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-10-2020-21-20-02" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-10-2020-21-40-02" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -439,6 +448,7080 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>公民在庄重场合可佩戴国徽徽章</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2824778</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>男版名媛</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2437208</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>汕头</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2435042</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Find X2英雄登场</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2434598</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>韩红 我一直跟郝蕾要二宝</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2433722</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>金鹰女神礼服</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2197891</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amy姐否认开天王嫂培训班</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1805432</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>邓超偷拍哈哈哈哈哈嘉宾睡觉</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>697914</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>明年起北京高考英语增加口试</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>656795</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>宝贝你是妈妈捐髓后获赠的</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>639472</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>这宿舍也太会了吧</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>631471</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>石原里美宣布结婚后首亮相</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>610190</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>男子编造青岛新冠确诊人数被拘15天</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>566235</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>一群小狗居然在等红绿灯</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>512555</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>荷兰报告全球首例二次感染死亡病例</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>489844</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>英国一体重340斤士兵被赶出部队</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>484439</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>假靳东</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>473155</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>资阳下水道现行李箱藏女尸</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>447206</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>广州地铁22号线拟延至东莞接深圳</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>430468</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>农行笔试</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>428971</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>上海隧道一司机别车反被撞</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>417524</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>怕是考不上清华北大了</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>382257</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>上海明道大厦起火</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>380107</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>当一个人很久没换过头像</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>379827</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>奸淫不满10周岁幼女将适用更重刑罚</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>379763</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>青岛核酸检测已采样423万份</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>377872</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>新冠疫苗预约</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>354637</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>黄磊喊孙莉孙姑娘</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>340593</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>山村教师为全班女生戴发夹</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>330480</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>湖人夺冠胡仁总灌君餐馆走红</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>329255</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>易烊千玺南京</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>322948</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>私家车被共享单车层层包围</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>308372</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>惊艳了整个秋天的银杏</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>287200</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>如何满足中老年女性情感需求</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>258885</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>外交部回应五眼联盟要求开后门</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>256378</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>校长戴表情包面具拔河</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>237233</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>文姬青岛分姬</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>216681</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>袁隆平团队沙漠海水稻亩产超千斤</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>212496</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>使徒3好哭</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>183438</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>北京现环天顶弧</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>183011</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>王舜禾退出水果星球</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>170575</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>当地政府为10岁写信男孩申请低保</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>170000</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>粉丝卖爱豆周边被抓包现场</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>170000</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>袁冰妍生图</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>169999</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>靳东工作室起诉假冒者</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>167340</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>捡到10万元钻戒以为是道具</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>158690</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>台风</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>157196</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TDK向美国申请对华为供货</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>152770</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>青岛市胸科医院相关388人均为阴性</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>150910</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>超刺激的华山索道</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>150493</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>第八届中国网络视听大会</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4715800</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>韩红 我一直跟郝蕾要二宝</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2116812</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>汕头</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2081561</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>金鹰女神礼服</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1843205</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>男版名媛</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1821020</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amy姐否认开天王嫂培训班</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1668011</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>雅诗兰黛双11居然限时</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1428688</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>邓超偷拍哈哈哈哈哈嘉宾睡觉</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1285057</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>明年起北京高考英语增加口试</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1267288</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>宝贝你是妈妈捐髓后获赠的</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1255771</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>新冠疫苗预约</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1182607</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>石原里美宣布结婚后首亮相</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>949760</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>青岛市胸科医院相关388人均为阴性</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>611927</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>这宿舍也太会了吧</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>513919</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>男子编造青岛新冠确诊人数被拘15天</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>511598</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>一群小狗居然在等红绿灯</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>416979</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>英国一体重340斤士兵被赶出部队</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>416838</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>黄磊喊孙莉孙姑娘</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>408916</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>荷兰报告全球首例二次感染死亡病例</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>405288</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>农行笔试</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>401240</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>资阳下水道现行李箱藏女尸</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>396036</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>袁冰妍生图</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>394406</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>上海隧道一司机别车反被撞</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>358889</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>怕是考不上清华北大了</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>335814</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>山村教师为全班女生戴发夹</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>335550</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>当一个人很久没换过头像</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>334688</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>假靳东</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>332530</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>广州地铁22号线拟延至东莞接深圳</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>331559</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>奸淫不满10周岁幼女将适用更重刑罚</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>330440</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>湖人夺冠胡仁总灌君餐馆走红</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>330212</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>粉丝卖爱豆周边被抓包现场</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>326054</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>上海明道大厦起火</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>317025</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>惊艳了整个秋天的银杏</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>299421</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>易烊千玺南京</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>278794</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>北方工业大学校长丁辉被查</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>277328</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>当地政府为10岁写信男孩申请低保</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>272493</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>如何满足中老年女性情感需求</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>268798</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>私家车被共享单车层层包围</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>236160</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>李婵微博评论</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>217556</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>袁隆平团队沙漠海水稻亩产超千斤</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>215394</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>校长戴表情包面具拔河</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>208919</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>文姬青岛分姬</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>185803</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>使徒3好哭</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>164295</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>王思聪</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>161491</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>外交部回应五眼联盟要求开后门</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>158040</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>捡到10万元钻戒以为是道具</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>152944</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>北京现环天顶弧</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>149383</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>格力起诉产权局</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>146040</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>超刺激的华山索道</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>145605</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>靳东工作室起诉假冒者</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>145096</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>中国少先队建队71周年</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4592336</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>韩红 我一直跟郝蕾要二宝</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1953112</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>汕头</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1931341</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>金鹰女神礼服</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1587215</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>黄磊喊孙莉孙姑娘</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1426390</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amy姐否认开天王嫂培训班</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1389699</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>新冠疫苗预约</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>710743</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>北方工业大学校长丁辉被查</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>653989</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>明年起北京高考英语增加口试</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>608557</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>男版名媛</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>589433</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>邓超偷拍哈哈哈哈哈嘉宾睡觉</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>583883</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>青岛市胸科医院相关388人均为阴性</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>552822</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>这宿舍也太会了吧</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>489930</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>宝贝你是妈妈捐髓后获赠的</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>445499</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>一群小狗居然在等红绿灯</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>412514</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>男子编造青岛新冠确诊人数被拘15天</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>345599</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>英国一体重340斤士兵被赶出部队</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>328528</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>山村教师为全班女生戴发夹</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>327129</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>农行笔试</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>325580</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>王思聪</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>323351</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>袁冰妍生图</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>322059</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>资阳下水道现行李箱藏女尸</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>319875</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>上海隧道一司机别车反被撞</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>318828</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>荷兰报告全球首例二次感染死亡病例</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>317546</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>当地政府为10岁写信男孩申请低保</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>315031</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>石原里美宣布结婚后首亮相</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>313684</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>李婵微博评论</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>312794</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>怕是考不上清华北大了</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>308619</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>广州地铁22号线拟延至东莞接深圳</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>306052</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>当一个人很久没换过头像</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>304395</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>假靳东</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>299610</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>粉丝卖爱豆周边被抓包现场</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>285281</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>惊艳了整个秋天的银杏</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>269170</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>奸淫不满10周岁幼女将适用更重刑罚</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>268329</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>如何满足中老年女性情感需求</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>267493</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>易烊千玺南京</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>264907</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>韩国外交部回应防弹少年团事件</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>247759</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>上海明道大厦起火</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>236915</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>格力起诉产权局</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>232158</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>净水器接错喝了3年软化盐</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>227701</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>奥巴马祝贺詹姆斯夺冠</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>226308</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>上海查获千万元假博柏利服饰</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>225707</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>私家车被共享单车层层包围</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>225557</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>唐嫣佘诗曼合影</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>215914</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>海军陆战队</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>206809</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>湖人夺冠胡仁总灌君餐馆走红</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>203451</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>外交部回应五眼联盟要求开后门</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>197559</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>校长戴表情包面具拔河</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>178503</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>文姬青岛分姬</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>177890</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>使徒3好哭</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>161459</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>国际减灾日</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4431132</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>韩红 我一直跟郝蕾要二宝</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1887916</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>汕头</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1777686</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>不松不垮不显纹</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1777686</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>金鹰女神礼服</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1470600</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>袁冰妍生图</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1424461</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>喜宝问你要钱还是要爱</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1334896</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>黄磊喊孙莉孙姑娘</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1276071</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>新冠疫苗预约</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>882393</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>北方工业大学校长丁辉被查</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>532054</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>明年起北京高考英语增加口试</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>527935</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>青岛市胸科医院相关388人均为阴性</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>521698</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>男版名媛</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>515382</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Amy姐否认开天王嫂培训班</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>506593</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>宝贝你是妈妈捐髓后获赠的</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>504116</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>男子编造青岛新冠确诊人数被拘15天</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>502592</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>这宿舍也太会了吧</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>419671</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>一群小狗居然在等红绿灯</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>400908</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>奥巴马祝贺詹姆斯夺冠</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>336141</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>英国一体重340斤士兵被赶出部队</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>309398</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>山村教师为全班女生戴发夹</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>309173</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>王思聪</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>307079</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>净水器接错喝了3年软化盐</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>306087</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>唐嫣佘诗曼合影</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>304023</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>资阳下水道现行李箱藏女尸</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>303111</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>海军陆战队</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>302799</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>怕是考不上清华北大了</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>302555</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>邓超偷拍哈哈哈哈哈嘉宾睡觉</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>302091</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>韩国外交部回应防弹少年团事件</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>301689</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>荷兰报告全球首例二次感染死亡病例</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>301347</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>农行笔试</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>300947</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>上海查获千万元假博柏利服饰</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>299291</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>李婵微博评论</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>286693</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>上海隧道一司机别车反被撞</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>286101</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>惊艳了整个秋天的银杏</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>259535</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>如何满足中老年女性情感需求</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>233094</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>当地政府为10岁写信男孩申请低保</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>231644</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>假靳东</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>230450</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>粉丝卖爱豆周边被抓包现场</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>224190</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>当一个人很久没换过头像</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>221396</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>上海明道大厦起火</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>218625</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>广州地铁22号线拟延至东莞接深圳</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>214499</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>易烊千玺南京</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>204754</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>私家车被共享单车层层包围</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>181489</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>校长戴表情包面具拔河</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>165394</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>奸淫不满10周岁幼女将适用更重刑罚</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>159024</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CP人工造糖</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>158921</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>格力起诉产权局</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>156548</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>新郎医生婚礼途中救溺水男童</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>156432</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>文姬青岛分姬</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>107391</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>国际减灾日</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4024091</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>韩红 我一直跟郝蕾要二宝</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1767710</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>汕头</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1737365</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>净水器接错喝了3年软化盐</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1675500</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>金鹰女神礼服</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1304145</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>袁冰妍生图</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1183158</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>黄磊喊孙莉孙姑娘</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1150150</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>北方工业大学校长丁辉被查</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1120709</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>明年起北京高考英语增加口试</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1119690</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>新冠疫苗预约</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>970061</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>韩国外交部回应防弹少年团事件</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>954046</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>男版名媛</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>682969</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>新郎医生婚礼途中救溺水男童</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>665035</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>宝贝你是妈妈捐髓后获赠的</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>650503</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>青岛市胸科医院相关388人均为阴性</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>473841</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>这宿舍也太会了吧</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>467141</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>奥巴马祝贺詹姆斯夺冠</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>449665</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>海军陆战队</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>307642</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>英国一体重340斤士兵被赶出部队</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>304674</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>王思聪</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>303673</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>唐嫣佘诗曼合影</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>299865</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>资阳下水道现行李箱藏女尸</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>294309</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>上海查获千万元假博柏利服饰</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>293415</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>男子编造青岛新冠确诊人数被拘15天</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>291517</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>一群小狗居然在等红绿灯</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>288176</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Amy姐否认开天王嫂培训班</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>287554</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>邓超偷拍哈哈哈哈哈嘉宾睡觉</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>278479</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>山村教师为全班女生戴发夹</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>269862</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>农行笔试</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>269796</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>怕是考不上清华北大了</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>269592</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>李婵微博评论</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>267646</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>惊艳了整个秋天的银杏</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>252232</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>上海隧道一司机别车反被撞</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>234973</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>荷兰报告全球首例二次感染死亡病例</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>232008</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>如何满足中老年女性情感需求</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>210874</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>粉丝卖爱豆周边被抓包现场</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>188250</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>当一个人很久没换过头像</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>183235</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>私家车被共享单车层层包围</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>183070</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>上海明道大厦起火</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>182702</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>当地政府为10岁写信男孩申请低保</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>182360</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>心动的信号</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>180457</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CP人工造糖</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>179653</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>我喜欢你大结局</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>177716</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>背单词的特殊方法</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>177185</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>阴阳师</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>174999</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>哈尔滨下雪了</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>174132</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>广州地铁22号线拟延至东莞接深圳</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>173038</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>奸淫不满10周岁幼女将适用更重刑罚</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>170779</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>假靳东</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>170462</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>易烊千玺南京</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>170020</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>第八届中国网络视听大会</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3667095</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>韩红 我一直跟郝蕾要二宝</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1648202</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>汕头</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1598324</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>净水器接错喝了3年软化盐</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1528346</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>唐嫣佘诗曼合影</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1514501</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>金鹰女神礼服</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1240046</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>新郎医生婚礼途中救溺水男童</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1235783</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>北方工业大学校长丁辉被查</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1233863</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>明年起北京高考英语增加口试</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1232662</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>韩国外交部回应防弹少年团事件</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1084591</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>袁冰妍生图</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>896661</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>新冠疫苗预约</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>729604</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>我喜欢你大结局</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>506211</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>海军陆战队</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>503936</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>心动的信号</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>484493</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>青岛市胸科医院相关388人均为阴性</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>479599</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>奥巴马祝贺詹姆斯夺冠</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>444686</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>宝贝你是妈妈捐髓后获赠的</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>440710</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>英国一体重340斤士兵被赶出部队</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>425403</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>王思聪</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>410768</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Amy姐否认开天王嫂培训班</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>392265</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>资阳下水道现行李箱藏女尸</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>380241</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>这宿舍也太会了吧</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>351968</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>山村教师为全班女生戴发夹</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>351209</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>哈尔滨下雪了</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>348029</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>黄磊喊孙莉孙姑娘</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>343064</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>邓超偷拍哈哈哈哈哈嘉宾睡觉</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>337555</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>男子编造青岛新冠确诊人数被拘15天</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>333168</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>农行笔试</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>329359</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>上海查获千万元假博柏利服饰</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>326547</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>李婵微博评论</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>287271</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>一群小狗居然在等红绿灯</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>283311</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>男版名媛</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>274671</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>粉丝卖爱豆周边被抓包现场</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>235956</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>怕是考不上清华北大了</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>235642</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>假靳东</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>231191</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>惊艳了整个秋天的银杏</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>228309</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>背单词的特殊方法</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>225799</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>上海隧道一司机别车反被撞</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>211074</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>如何满足中老年女性情感需求</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>210962</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>阴阳师</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>210958</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>林雨申读诗告别我喜欢你</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>210956</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>荷兰报告全球首例二次感染死亡病例</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>191686</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>怀疑自己偷拿文物被诅咒主动归还</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>179580</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>朱广权提醒你秋裤赶紧换</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>178504</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>私家车被共享单车层层包围</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>174166</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>格力起诉产权局</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>172705</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>广州地铁22号线拟延至东莞接深圳</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>171932</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>当一个人很久没换过头像</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>171448</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>上海明道大厦起火</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>168722</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>中国少先队建队71周年</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3513617</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>韩红 我一直跟郝蕾要二宝</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1588820</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>汕头</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1586115</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>realme真我Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1550164</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>净水器接错喝了3年软化盐</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1429812</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>金鹰女神礼服</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1426477</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>唐嫣佘诗曼合影</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1396350</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>新郎医生婚礼途中救溺水男童</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1174682</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>北方工业大学校长丁辉被查</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1164608</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>英国一体重340斤士兵被赶出部队</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1155093</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>韩国外交部回应防弹少年团事件</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1013935</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>我喜欢你大结局</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>982188</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>袁冰妍生图</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>859648</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>新冠疫苗预约</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>463761</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>海军陆战队</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>460648</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>心动的信号</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>440568</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>青岛市胸科医院相关388人均为阴性</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>422220</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>奥巴马祝贺詹姆斯夺冠</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>400223</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>朱广权提醒你秋裤赶紧换</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>399914</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>明年起北京高考英语增加口试</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>396605</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>王思聪</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>394861</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>怀疑自己偷拿文物被诅咒主动归还</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>393717</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Amy姐否认开天王嫂培训班</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>391545</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>资阳下水道现行李箱藏女尸</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>391165</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>宝贝你是妈妈捐髓后获赠的</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>382644</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>哈尔滨下雪了</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>360117</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>黄磊喊孙莉孙姑娘</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>350877</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>林雨申读诗告别我喜欢你</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>338129</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>山村教师为全班女生戴发夹</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>313581</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>农行笔试</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>309764</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>上海查获千万元假博柏利服饰</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>308679</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>邓超偷拍哈哈哈哈哈嘉宾睡觉</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>306133</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>李婵微博评论</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>294682</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>这宿舍也太会了吧</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>279352</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>背单词的特殊方法</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>268623</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>一群小狗居然在等红绿灯</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>256885</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>粉丝卖爱豆周边被抓包现场</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>229244</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>男子编造青岛新冠确诊人数被拘15天</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>223329</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>惊艳了整个秋天的银杏</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>219821</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>假靳东</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>214808</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>上海隧道一司机别车反被撞</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>211621</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>李佳琦直播</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>209464</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>林雨申哭戏</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>209023</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>焦点访谈</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>208906</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>如何满足中老年女性情感需求</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>192335</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>小男孩做完核酸检测后向医护鞠躬</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>190499</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>怕是考不上清华北大了</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>189404</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>阴阳师</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>175077</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>格力起诉产权局</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>171603</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>当听障男孩第一次听见声音</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>170619</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>公民在庄重场合可佩戴国徽徽章</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3290564</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>韩红 我一直跟郝蕾要二宝</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1495190</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>汕头</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1435468</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>唐嫣佘诗曼合影</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1358057</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>小男孩做完核酸检测后向医护鞠躬</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1339247</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>金鹰女神礼服</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1337017</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>净水器接错喝了3年软化盐</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1148589</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>朱广权提醒你秋裤赶紧换</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1099613</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>英国一体重340斤士兵被赶出部队</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1078600</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>我喜欢你大结局</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1005415</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>韩国外交部回应防弹少年团事件</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>946709</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>新郎医生婚礼途中救溺水男童</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>831032</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>袁冰妍生图</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>773703</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>宝贝你是妈妈捐髓后获赠的</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>771182</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>新冠疫苗预约</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>659258</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>心动的信号</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>656936</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>海军陆战队</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>637628</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>奥巴马祝贺詹姆斯夺冠</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>634637</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>明年起北京高考英语增加口试</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>621912</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>王思聪</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>602643</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>怀疑自己偷拿文物被诅咒主动归还</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>588820</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>惊艳了整个秋天的银杏</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>583979</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>山村教师为全班女生戴发夹</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>561516</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>阴阳师</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>552128</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>希林娜依高骗郑乃馨喝豆汁</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>540907</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Amy姐否认开天王嫂培训班</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>536247</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>黄磊喊孙莉孙姑娘</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>396472</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>男子编造青岛新冠确诊人数被拘15天</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>394516</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>农行笔试</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>394283</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>资阳下水道现行李箱藏女尸</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>391476</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>林雨申读诗告别我喜欢你</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>383702</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>哈尔滨下雪了</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>363348</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>焦点访谈</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>332826</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>外交部回应五眼联盟要求开后门</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>326020</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>青岛市胸科医院相关388人均为阴性</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>309769</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>邓超偷拍哈哈哈哈哈嘉宾睡觉</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>276520</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>背单词的特殊方法</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>243906</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>上海查获千万元假博柏利服饰</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>232743</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>这宿舍也太会了吧</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>232669</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>当听障男孩第一次听见声音</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>232408</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>林雨申哭戏</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>232204</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>名媛</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>231815</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>半是蜜糖半是伤</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>231505</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>李佳琦直播</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>231252</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>路晋求婚顾胜男</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>231101</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>北方工业大学校长丁辉被查</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>230809</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>蔡徐坤转锤子道具好可爱</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>230388</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>格力起诉产权局</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>230229</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>基金</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>229781</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>一群小狗居然在等红绿灯</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>228263</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>国际减灾日</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3075944</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>韩红 我一直跟郝蕾要二宝</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1844425</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>小男孩做完核酸检测后向医护鞠躬</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1810203</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>realme真我Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1355538</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>唐嫣佘诗曼合影</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1331425</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>净水器接错喝了3年软化盐</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1225697</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>金鹰女神礼服</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1208563</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>汕头</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1046900</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>我喜欢你大结局</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>975837</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>英国一体重340斤士兵被赶出部队</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>973382</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>名媛</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>914346</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>韩国外交部回应防弹少年团事件</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>768158</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>袁冰妍生图</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>732491</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>新冠疫苗预约</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>682787</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>朱广权提醒你秋裤赶紧换</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>681865</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>心动的信号</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>679022</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>宝贝你是妈妈捐髓后获赠的</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>673716</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>惊艳了整个秋天的银杏</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>671068</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>奥巴马祝贺詹姆斯夺冠</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>665777</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>明年起北京高考英语增加口试</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>662325</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>希林娜依高骗郑乃馨喝豆汁</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>659067</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>王思聪</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>652261</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>怀疑自己偷拿文物被诅咒主动归还</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>651026</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>海军陆战队</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>645855</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>阴阳师</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>642904</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>新郎医生婚礼途中救溺水男童</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>576496</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Amy姐否认开天王嫂培训班</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>501128</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>黄磊喊孙莉孙姑娘</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>460963</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>山村教师为全班女生戴发夹</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>448225</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>农行笔试</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>446614</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>半是蜜糖半是伤</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>446549</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>邓超偷拍哈哈哈哈哈嘉宾睡觉</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>423912</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>林雨申读诗告别我喜欢你</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>410194</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>焦点访谈</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>366759</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>外交部回应五眼联盟要求开后门</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>358879</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>哈尔滨下雪了</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>356755</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>蔡徐坤转锤子道具好可爱</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>351823</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>资阳下水道现行李箱藏女尸</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>304031</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>青岛市胸科医院相关388人均为阴性</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>263909</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>背单词的特殊方法</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>262462</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>当听障男孩第一次听见声音</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>262008</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>范丞丞织毛衣</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>261998</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>林雨申哭戏</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>261911</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>路晋求婚顾胜男</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>258534</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>袁帅江君跨年吻</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>248997</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>台湾间谍13年领160万新台币间谍经费</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>244910</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>熊顿人间真实</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>231855</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>男子编造青岛新冠确诊人数被拘15天</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>226520</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>格力起诉产权局</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>214477</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>基金</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>213564</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
